--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ssq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="原始数据" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5267,6 +5267,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2023063</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-06-04</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>17</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20</v>
+      </c>
+      <c r="G64" t="n">
+        <v>22</v>
+      </c>
+      <c r="H64" t="n">
+        <v>27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>98</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-7</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-11</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-38</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -2,56 +2,76 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Trend Chart" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b val="1"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Consolas"/>
       <b val="1"/>
-      <color rgb="00D9D9D9"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Consolas"/>
       <b val="1"/>
-      <color rgb="00F11515"/>
+      <color rgb="FFD9D9D9"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Consolas"/>
       <b val="1"/>
-      <color rgb="001a428a"/>
+      <color rgb="FFF11515"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <b val="1"/>
+      <color rgb="FF1A428A"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -63,26 +83,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00f9cc0d"/>
+        <fgColor rgb="FFF9CC0D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00f2f1dd"/>
+        <fgColor rgb="FFF2F1DD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
+        <fgColor rgb="FF0070C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00d9effc"/>
+        <fgColor rgb="FFD9EFFC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,30 +111,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00BFBFBF"/>
-      </left>
-      <right style="thin">
-        <color rgb="00BFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="00BFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00BFBFBF"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -140,9 +176,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -505,14 +544,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5904,6 +5943,654 @@
       </c>
       <c r="Y66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>26</v>
+      </c>
+      <c r="H67" t="n">
+        <v>31</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>84</v>
+      </c>
+      <c r="K67" t="n">
+        <v>90</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>16</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>29</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-7</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-9</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-10</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-28</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="n">
+        <v>19</v>
+      </c>
+      <c r="G68" t="n">
+        <v>28</v>
+      </c>
+      <c r="H68" t="n">
+        <v>32</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>95</v>
+      </c>
+      <c r="K68" t="n">
+        <v>109</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9</v>
+      </c>
+      <c r="N68" t="n">
+        <v>7</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>31</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-4</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4</v>
+      </c>
+      <c r="U68" t="n">
+        <v>9</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>11</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12</v>
+      </c>
+      <c r="E69" t="n">
+        <v>15</v>
+      </c>
+      <c r="F69" t="n">
+        <v>18</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29</v>
+      </c>
+      <c r="H69" t="n">
+        <v>33</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>118</v>
+      </c>
+      <c r="K69" t="n">
+        <v>120</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="n">
+        <v>11</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>22</v>
+      </c>
+      <c r="R69" t="n">
+        <v>10</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>110</v>
+      </c>
+      <c r="K70" t="n">
+        <v>112</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>14</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-7</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>25</v>
+      </c>
+      <c r="F71" t="n">
+        <v>31</v>
+      </c>
+      <c r="G71" t="n">
+        <v>32</v>
+      </c>
+      <c r="H71" t="n">
+        <v>33</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>129</v>
+      </c>
+      <c r="K71" t="n">
+        <v>133</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>20</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>30</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-9</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-9</v>
+      </c>
+      <c r="T71" t="n">
+        <v>8</v>
+      </c>
+      <c r="U71" t="n">
+        <v>11</v>
+      </c>
+      <c r="V71" t="n">
+        <v>11</v>
+      </c>
+      <c r="W71" t="n">
+        <v>7</v>
+      </c>
+      <c r="X71" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19</v>
+      </c>
+      <c r="G72" t="n">
+        <v>24</v>
+      </c>
+      <c r="H72" t="n">
+        <v>26</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>101</v>
+      </c>
+      <c r="K72" t="n">
+        <v>107</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>21</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-10</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-12</v>
+      </c>
+      <c r="V72" t="n">
+        <v>-8</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-7</v>
+      </c>
+      <c r="X72" t="n">
+        <v>-28</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>24</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>33</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>100</v>
+      </c>
+      <c r="K73" t="n">
+        <v>109</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>31</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-6</v>
+      </c>
+      <c r="T73" t="n">
+        <v>-5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" t="n">
+        <v>7</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>16</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>92</v>
+      </c>
+      <c r="K74" t="n">
+        <v>102</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>12</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>9</v>
+      </c>
+      <c r="P74" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>31</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5917,69 +6604,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY66"/>
+  <dimension ref="A1:AY74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="4" customWidth="1" min="9" max="9"/>
-    <col width="4" customWidth="1" min="10" max="10"/>
-    <col width="4" customWidth="1" min="11" max="11"/>
-    <col width="4" customWidth="1" min="12" max="12"/>
-    <col width="4" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
-    <col width="4" customWidth="1" min="18" max="18"/>
-    <col width="4" customWidth="1" min="19" max="19"/>
-    <col width="4" customWidth="1" min="20" max="20"/>
-    <col width="4" customWidth="1" min="21" max="21"/>
-    <col width="4" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="4" customWidth="1" min="27" max="27"/>
-    <col width="4" customWidth="1" min="28" max="28"/>
-    <col width="4" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="4" customWidth="1" min="36" max="36"/>
-    <col width="4" customWidth="1" min="37" max="37"/>
-    <col width="4" customWidth="1" min="38" max="38"/>
-    <col width="4" customWidth="1" min="39" max="39"/>
-    <col width="4" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
-    <col width="4" customWidth="1" min="45" max="45"/>
-    <col width="4" customWidth="1" min="46" max="46"/>
-    <col width="4" customWidth="1" min="47" max="47"/>
-    <col width="4" customWidth="1" min="48" max="48"/>
-    <col width="4" customWidth="1" min="49" max="49"/>
-    <col width="4" customWidth="1" min="50" max="50"/>
-    <col width="4" customWidth="1" min="51" max="51"/>
+    <col width="4" customWidth="1" min="3" max="51"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Issue No.</t>
@@ -6236,7 +6875,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2023001</t>
@@ -6479,7 +7118,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2023002</t>
@@ -6722,7 +7361,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2023003</t>
@@ -6965,7 +7604,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2023004</t>
@@ -7208,7 +7847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2023005</t>
@@ -7451,7 +8090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2023006</t>
@@ -7694,7 +8333,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2023007</t>
@@ -7937,7 +8576,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2023008</t>
@@ -8180,7 +8819,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2023009</t>
@@ -8423,7 +9062,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>2023010</t>
@@ -8666,7 +9305,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>2023011</t>
@@ -8909,7 +9548,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>2023012</t>
@@ -9152,7 +9791,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>2023013</t>
@@ -9395,7 +10034,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>2023014</t>
@@ -9638,7 +10277,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>2023015</t>
@@ -9881,7 +10520,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>2023016</t>
@@ -10124,7 +10763,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>2023017</t>
@@ -10367,7 +11006,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>2023018</t>
@@ -10610,7 +11249,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>2023019</t>
@@ -10853,7 +11492,7 @@
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>2023020</t>
@@ -11096,7 +11735,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>2023021</t>
@@ -11339,7 +11978,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t>2023022</t>
@@ -11582,7 +12221,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
           <t>2023023</t>
@@ -11825,7 +12464,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
           <t>2023024</t>
@@ -12068,7 +12707,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>2023025</t>
@@ -12311,7 +12950,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>2023026</t>
@@ -12554,7 +13193,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
           <t>2023027</t>
@@ -12797,7 +13436,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
           <t>2023028</t>
@@ -13040,7 +13679,7 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
           <t>2023029</t>
@@ -13283,7 +13922,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>2023030</t>
@@ -13526,7 +14165,7 @@
         </is>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
           <t>2023031</t>
@@ -13769,7 +14408,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>2023032</t>
@@ -14012,7 +14651,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>2023033</t>
@@ -14255,7 +14894,7 @@
         </is>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2023034</t>
@@ -14498,7 +15137,7 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
           <t>2023035</t>
@@ -14741,7 +15380,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
           <t>2023036</t>
@@ -14984,7 +15623,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15" customHeight="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
           <t>2023037</t>
@@ -15227,7 +15866,7 @@
         </is>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>2023038</t>
@@ -15470,7 +16109,7 @@
         </is>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
           <t>2023039</t>
@@ -15713,7 +16352,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
           <t>2023040</t>
@@ -15956,7 +16595,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
           <t>2023041</t>
@@ -16199,7 +16838,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
           <t>2023042</t>
@@ -16442,7 +17081,7 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
           <t>2023043</t>
@@ -16685,7 +17324,7 @@
         </is>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>2023044</t>
@@ -16928,7 +17567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
           <t>2023045</t>
@@ -17171,7 +17810,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
           <t>2023046</t>
@@ -17414,7 +18053,7 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
           <t>2023047</t>
@@ -17657,7 +18296,7 @@
         </is>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>2023048</t>
@@ -17900,7 +18539,7 @@
         </is>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
           <t>2023049</t>
@@ -18143,7 +18782,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
           <t>2023050</t>
@@ -18386,7 +19025,7 @@
         </is>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
           <t>2023051</t>
@@ -18629,7 +19268,7 @@
         </is>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>2023052</t>
@@ -18872,7 +19511,7 @@
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
           <t>2023053</t>
@@ -19115,7 +19754,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15" customHeight="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
           <t>2023054</t>
@@ -19358,7 +19997,7 @@
         </is>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15" customHeight="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
           <t>2023055</t>
@@ -19601,7 +20240,7 @@
         </is>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
           <t>2023056</t>
@@ -19844,7 +20483,7 @@
         </is>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15" customHeight="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
           <t>2023057</t>
@@ -20087,7 +20726,7 @@
         </is>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15" customHeight="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
           <t>2023058</t>
@@ -20330,7 +20969,7 @@
         </is>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15" customHeight="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
           <t>2023059</t>
@@ -20573,7 +21212,7 @@
         </is>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
           <t>2023060</t>
@@ -20816,7 +21455,7 @@
         </is>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
           <t>2023061</t>
@@ -21059,7 +21698,7 @@
         </is>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15" customHeight="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
           <t>2023062</t>
@@ -21302,7 +21941,7 @@
         </is>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
           <t>2023063</t>
@@ -21545,7 +22184,7 @@
         </is>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15" customHeight="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
           <t>2023064</t>
@@ -21788,7 +22427,7 @@
         </is>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15" customHeight="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
           <t>2023065</t>
@@ -22029,6 +22668,4360 @@
         <is>
           <t>21</t>
         </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>2023066</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I67" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L67" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q67" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R67" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T67" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U67" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W67" s="5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y67" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z67" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA67" s="5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AB67" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD67" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AE67" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF67" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG67" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH67" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AI67" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ67" s="7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AK67" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AL67" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AM67" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN67" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO67" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP67" s="7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AQ67" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AR67" s="7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AS67" s="7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AT67" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AU67" s="7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AV67" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AW67" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX67" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AY67" s="7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>2023067</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-13</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O68" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P68" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q68" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S68" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U68" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V68" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W68" s="5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X68" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y68" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z68" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA68" s="5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AB68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC68" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD68" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE68" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF68" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG68" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH68" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI68" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ68" s="7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AK68" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AL68" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AM68" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN68" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AO68" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP68" s="7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AQ68" s="7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AR68" s="7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AS68" s="7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AT68" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU68" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AV68" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AW68" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX68" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AY68" s="7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>2023068</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M69" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N69" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O69" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q69" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R69" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T69" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W69" s="5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="X69" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y69" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z69" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA69" s="5" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AB69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC69" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE69" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF69" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG69" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH69" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI69" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ69" s="7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AK69" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL69" s="7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AM69" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AN69" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AO69" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP69" s="7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AQ69" s="7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AR69" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AS69" s="7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AT69" s="7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AU69" s="7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AV69" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AW69" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX69" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AY69" s="7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>2023069</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K70" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N70" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O70" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P70" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R70" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S70" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="T70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U70" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V70" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="W70" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X70" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Y70" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z70" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA70" s="5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB70" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC70" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AD70" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF70" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AG70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH70" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI70" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ70" s="7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AK70" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL70" s="7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AM70" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AN70" s="7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AO70" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP70" s="7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AQ70" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AR70" s="7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AS70" s="7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AT70" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AU70" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AV70" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AW70" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX70" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AY70" s="7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>2023070</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L71" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M71" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O71" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q71" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R71" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="S71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T71" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X71" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y71" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z71" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA71" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB71" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC71" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AD71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE71" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF71" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AG71" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH71" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI71" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ71" s="7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AK71" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL71" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AM71" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN71" s="7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AO71" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP71" s="7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AQ71" s="7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AR71" s="7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AS71" s="7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AT71" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AU71" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AV71" s="7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AW71" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AX71" s="7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AY71" s="7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>2023071</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J72" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K72" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L72" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M72" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O72" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P72" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q72" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R72" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S72" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T72" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U72" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V72" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W72" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X72" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y72" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Z72" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB72" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC72" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD72" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE72" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF72" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AG72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI72" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ72" s="7" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AK72" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL72" s="7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AM72" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN72" s="7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AO72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP72" s="7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AQ72" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR72" s="7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AS72" s="7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AT72" s="7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AU72" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AV72" s="7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AW72" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX72" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AY72" s="7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>2023072</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J73" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K73" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L73" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M73" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O73" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R73" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T73" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X73" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Y73" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Z73" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA73" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB73" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC73" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AD73" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE73" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF73" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AG73" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH73" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI73" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ73" s="7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AK73" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AL73" s="7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AM73" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN73" s="7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AO73" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP73" s="7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AQ73" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AR73" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS73" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AT73" s="7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AU73" s="7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AV73" s="7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AW73" s="7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AX73" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY73" s="7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>2023073</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J74" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K74" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M74" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N74" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O74" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P74" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q74" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="S74" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T74" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="U74" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V74" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W74" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X74" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y74" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Z74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA74" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB74" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC74" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AD74" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE74" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF74" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AG74" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH74" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI74" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ74" s="7" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AK74" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL74" s="7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AM74" s="7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN74" s="7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AO74" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP74" s="7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AQ74" s="7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AR74" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS74" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT74" s="7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AU74" s="7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AV74" s="7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AW74" s="7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AX74" s="7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AY74" s="7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(3 * 1) - 2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(3 - 12) + 11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(12 - 11) * 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(3 + 12) - 11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(3 * 1) + 2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(3 + 1) + 2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(3 * 2) + 1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(3 + 1) * 2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(12 - 3) * 1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(12 - 3) + 1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(3 - 2) * 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(3 + 11) - 2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(3 + 12) - 2</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(3 + 12) - 1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(3 + 12) * 1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(3 + 12) + 1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(3 + 12) + 2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(3 * 2) + 12</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(11 * 2) - 3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(12 - 3) + 11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(3 * 11) - 12</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(3 - 1) * 11</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(12 + 11) * 1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(3 - 1) * 12</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(3 * 12) - 11</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(3 + 12) + 11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(12 * 2) + 3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(3 + 11) * 2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(3 + 12) * 2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(3 * 11) - 2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(3 * 11) - 1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(3 * 11) * 1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+      <c r="C33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(5 * 3) - 14</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(14 - 5) - 7</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(5 - 14) + 12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(14 - 3) - 7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(14 - 12) + 3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(14 - 5) - 3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(5 + 14) - 12</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(5 * 3) - 7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(5 - 3) + 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(5 + 12) - 7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(5 + 14) - 7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(5 + 12) - 3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(5 + 3) + 7</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(5 + 14) - 3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(14 - 3) + 7</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(14 + 12) - 7</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(5 + 12) + 3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(5 * 7) - 14</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(5 + 14) + 3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(5 * 7) - 12</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(5 + 12) + 7</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(12 - 7) * 5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(5 + 14) + 7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(5 * 3) + 12</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(5 - 3) * 14</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>28</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(5 * 3) + 14</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(14 * 3) - 12</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(5 + 14) + 12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(5 * 7) - 3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(14 + 12) + 7</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(25 - 15) - 8</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(12 - 17) + 8</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(17 - 25) + 12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(25 - 12) - 8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(15 - 17) + 8</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(17 - 25) + 15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(17 + 8) - 17</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(17 - 25) + 17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(17 - 15) + 8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(15 - 12) + 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(17 + 12) - 17</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(17 - 12) + 8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(17 - 15) + 12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(17 + 15) - 17</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(25 - 17) + 8</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(25 - 15) + 8</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(17 - 15) + 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(25 - 17) + 12</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(25 - 12) + 8</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(25 - 15) + 12</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(25 - 17) + 15</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(17 - 15) * 12</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(25 + 17) - 17</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(17 - 8) + 17</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(25 + 17) - 15</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(25 + 15) - 12</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(25 + 12) - 8</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(25 + 17) - 12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(25 + 15) - 8</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(31 - 20) - 10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(31 - 19) - 10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(31 - 18) - 10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(10 - 18) + 12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(18 - 31) + 19</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(20 - 31) + 18</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(20 - 31) + 19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(31 - 10) - 12</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(20 - 19) * 10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(20 - 19) + 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(20 - 18) + 10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(20 - 19) + 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(20 - 18) + 12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(18 + 10) - 12</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(18 - 20) + 19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(20 + 18) - 20</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(20 + 18) - 19</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(20 - 18) * 10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(31 - 20) + 10</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(31 - 19) + 10</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(31 - 20) + 12</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(31 - 19) + 12</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(31 - 18) + 12</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(20 + 18) - 12</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(20 + 19) - 12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(20 + 18) - 10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(31 - 20) + 18</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(31 - 20) + 19</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(31 + 20) - 20</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(31 + 20) - 19</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>32</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(31 + 20) - 18</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>33</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(21 - 32) + 16</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(21 - 29) + 16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(21 - 28) + 16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(26 - 32) + 16</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(21 - 26) + 16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(28 - 32) + 16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(29 - 32) + 16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(26 - 28) + 16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(21 - 32) + 26</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(29 - 28) * 16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(21 - 32) + 28</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(21 - 32) + 29</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(32 - 29) + 16</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(32 - 28) + 16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(21 + 26) - 26</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(32 - 26) + 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(21 + 28) - 26</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(32 + 21) - 29</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(32 + 21) - 28</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(29 - 28) * 26</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(32 + 21) - 26</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(28 + 26) - 26</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(32 - 29) + 26</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(32 - 28) + 26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(32 - 29) + 28</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(32 + 26) - 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(32 + 29) - 28</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(26 - 33) + 31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(26 - 33) + 32</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(33 + 26) - 33</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(33 + 26) - 32</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(33 + 26) - 31</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(32 - 33) + 31</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(33 - 33) + 31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(33 - 33) + 32</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(33 + 33) - 33</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>operators</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>groupby</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(4 * 2) - 6</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>(4 + 2) - 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(4 * 2) - 2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(4 + 2) + 2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(4 * 2) + 2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(4 + 2) * 2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(4 * 2) + 6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(4 * 2) * 2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
